--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\user\Documents\Mphasis\FoodDelivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DE7A5A5-B278-474A-8230-4FA13FEE8B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D59177-7988-4D93-9A55-03A616B03BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{803F6772-99E4-4DDE-909D-048EFCFA1D68}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{803F6772-99E4-4DDE-909D-048EFCFA1D68}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>UserID</t>
   </si>
@@ -92,6 +92,110 @@
   </si>
   <si>
     <t>2569 Wakefield Street Philadelphia PA 19111</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Tiramisu</t>
+  </si>
+  <si>
+    <t>Entree of Spaghetti pasta topped with pomodoro sauce.</t>
+  </si>
+  <si>
+    <t>Lasagne</t>
+  </si>
+  <si>
+    <t>Dessert made with Lady fingers dipped in liqueur laced espresso, layered with sweetened mascarpone, Myers's Rum and chocolate shavings.</t>
+  </si>
+  <si>
+    <t>Entree oade of Pasta layered with pomodoro sauce, meat sauce, ricotta, romano and mozzarella cheese.</t>
+  </si>
+  <si>
+    <t>Calamari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appetizer of Hand-breaded squid served with Ricardo and marinara sauces.
+</t>
+  </si>
+  <si>
+    <t>General Tso's Chicken</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Entree made with fried chicken pieces coated in a sweet and slightly spicy sauce.</t>
+  </si>
+  <si>
+    <t>Pork Fried Rice</t>
+  </si>
+  <si>
+    <t>Entrée of rice stirfried with pork, eggs, and other vegitables.</t>
+  </si>
+  <si>
+    <t>Hunan Shrimp</t>
+  </si>
+  <si>
+    <t>Entrée made with shrimp stirfried in chili paste, garlic, rice vinegar, and soy sauce. It is salty and spicy.</t>
+  </si>
+  <si>
+    <t>Chicken Tikka Masala</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Entree consisting of roasted marinated chicken chunks (chicken tikka) in spiced curry sauce.</t>
+  </si>
+  <si>
+    <t>Samosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appetizer of savoury pastry with fillings of Potatoes, onion, and peas. Comes with Tamarind Chutney sause
+</t>
+  </si>
+  <si>
+    <t>Goat Vindaloo</t>
+  </si>
+  <si>
+    <t>A Heavily spiced Entree made with goat, chilis, tamarind, ginger, cumin, and mustard seeds. A Very spicy dish</t>
+  </si>
+  <si>
+    <t>Ras Malai</t>
+  </si>
+  <si>
+    <t>A dessert is made up of sweet paneer balls, cooked in sugar syrup until fluffy and served in a creamy milk sauce flavoured with cardamom and saffron and topped with nuts</t>
+  </si>
+  <si>
+    <t>Nachos al Carbon</t>
+  </si>
+  <si>
+    <t>Mexican</t>
+  </si>
+  <si>
+    <t>Appitizer with individual corn tortilla chips topped with grilled marinated beef steak. Served with pico de gallo, guacamole, and sour cream.</t>
+  </si>
+  <si>
+    <t>Chicken Chimichangas</t>
+  </si>
+  <si>
+    <t>Entree of crisp flour tortilla rolled with  chicken. Served with beans, rice, lettuce, pico de gallo, guacamole, and sour cream.</t>
+  </si>
+  <si>
+    <t>Pollo Asado</t>
+  </si>
+  <si>
+    <t>Entree made with half of a boneless chicken, oven roasted, marinated in a sherry wine sauce, and herbs. Topped with Spanish onions. Served with white Spanish rice and Cuban style black beans.</t>
+  </si>
+  <si>
+    <t>Tres Leches</t>
+  </si>
+  <si>
+    <t>A Dessert of sponge cake soaked in a mixture of condenced milk, evaporated milk, and cream</t>
   </si>
 </sst>
 </file>
@@ -496,19 +600,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDFF2A7-C2FB-40F8-BDB3-C1847EC9C624}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="20" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="12"/>
+    <col min="2" max="2" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -535,173 +639,354 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13.95</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <v>17.95</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>19.14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17.75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18.95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.99</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.99</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -709,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8FB099-BA3D-4338-9CAC-75E6552FEB97}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\user\Documents\Mphasis\FoodDelivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D59177-7988-4D93-9A55-03A616B03BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C7B45-875F-4B54-9830-494F246700F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{803F6772-99E4-4DDE-909D-048EFCFA1D68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{803F6772-99E4-4DDE-909D-048EFCFA1D68}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="11">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="G2" s="1" t="b">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="11">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="11">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="11">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="11">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="11">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G10" s="1" t="b">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="11">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="G13" s="1" t="b">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="11">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="G15" s="1" t="b">
         <v>1</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\user\Documents\Mphasis\FoodDelivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C7B45-875F-4B54-9830-494F246700F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30262AA5-E8EC-4059-9046-3E72CC457E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{803F6772-99E4-4DDE-909D-048EFCFA1D68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>UserID</t>
   </si>
@@ -196,6 +196,54 @@
   </si>
   <si>
     <t>A Dessert of sponge cake soaked in a mixture of condenced milk, evaporated milk, and cream</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>./foodImages/Spaghetti.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/PorkFriedRice.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/NachoCarbon.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/ChickenChimichangas.jpeg</t>
+  </si>
+  <si>
+    <t>./foodImages/GenralTsoChicken.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/Tiramisu.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/Lasagne.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/HunanShrimp.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/PolloAsado.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/ChickenTikkaMasala.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/Samosas.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/TresLeches.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/GoatVindaloo.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/Calamari.jpg</t>
+  </si>
+  <si>
+    <t>./foodImages/RasMalai.jpg</t>
   </si>
 </sst>
 </file>
@@ -260,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -283,6 +331,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDFF2A7-C2FB-40F8-BDB3-C1847EC9C624}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -613,10 +664,11 @@
     <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="43.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,11 +687,14 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -658,11 +713,14 @@
       <c r="F2" s="11">
         <v>0.42</v>
       </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -681,11 +739,14 @@
       <c r="F3" s="11">
         <v>0.18</v>
       </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -704,11 +765,14 @@
       <c r="F4" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -727,11 +791,14 @@
       <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -750,11 +817,14 @@
       <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -773,11 +843,14 @@
       <c r="F7" s="11">
         <v>0.52</v>
       </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -796,11 +869,14 @@
       <c r="F8" s="11">
         <v>0.73</v>
       </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -819,11 +895,14 @@
       <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -842,11 +921,14 @@
       <c r="F10" s="11">
         <v>0.33</v>
       </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -865,11 +947,14 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -888,11 +973,14 @@
       <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -911,11 +999,14 @@
       <c r="F13" s="11">
         <v>0.81</v>
       </c>
-      <c r="G13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -934,11 +1025,14 @@
       <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -957,11 +1051,14 @@
       <c r="F15" s="11">
         <v>0.67</v>
       </c>
-      <c r="G15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -980,7 +1077,10 @@
       <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="b">
+      <c r="G16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="1" t="b">
         <v>1</v>
       </c>
     </row>
